--- a/public/excel/справка_под_задачи_минпроса.xlsx
+++ b/public/excel/справка_под_задачи_минпроса.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">№
 п/п</t>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t xml:space="preserve">Иные организации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Год создания</t>
   </si>
 </sst>
 </file>
@@ -76,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -114,6 +117,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,7 +175,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -175,6 +185,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -195,13 +209,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1048576"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.85"/>
@@ -218,7 +232,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.85"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="173.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="93.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -263,6 +277,9 @@
       </c>
       <c r="O1" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/public/excel/справка_под_задачи_минпроса.xlsx
+++ b/public/excel/справка_под_задачи_минпроса.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">№
 п/п</t>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t xml:space="preserve">Год создания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Город</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -190,6 +193,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -209,10 +216,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1048576"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -281,6 +288,9 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/public/excel/справка_под_задачи_минпроса.xlsx
+++ b/public/excel/справка_под_задачи_минпроса.xlsx
@@ -106,7 +106,6 @@
       <family val="0"/>
     </font>
     <font>
-      <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -114,7 +113,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <i val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -178,7 +176,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -197,6 +195,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -218,8 +220,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -229,7 +231,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="35.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.71"/>
@@ -239,7 +241,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.85"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="93.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="93.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/public/excel/справка_под_задачи_минпроса.xlsx
+++ b/public/excel/справка_под_задачи_минпроса.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">№
 п/п</t>
@@ -41,7 +41,10 @@
     <t xml:space="preserve">Инициатор создания центра</t>
   </si>
   <si>
-    <t xml:space="preserve">Базовая образовательная организация (грантополучатель)</t>
+    <t xml:space="preserve">Базовая образовательная организация </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование организации грантополучателя</t>
   </si>
   <si>
     <t xml:space="preserve">Работодатели</t>
@@ -218,13 +221,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1048576"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.85"/>
@@ -232,13 +235,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="35.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="26.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="38.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="35.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="38.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.85"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="93.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -263,7 +266,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -287,19 +290,16 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/public/excel/справка_под_задачи_минпроса.xlsx
+++ b/public/excel/справка_под_задачи_минпроса.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">№
 п/п</t>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t xml:space="preserve">Город</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теги</t>
   </si>
 </sst>
 </file>
@@ -138,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -153,6 +159,20 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -179,28 +199,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -216,88 +248,200 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="35.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="26.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="38.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="35.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="38.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="93.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="8" customFormat="true" ht="107.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
